--- a/1-Situacioni/regjistri/18-Koordinatat-e-ndërtesës1084-29-Fahriu.xlsx
+++ b/1-Situacioni/regjistri/18-Koordinatat-e-ndërtesës1084-29-Fahriu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Ferizaj\Ferizaj\Ingjinierike\565-6-Shefkia1\1-Situacioni\regjistri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Ferizaj\Ferizaj\Ingjinierike\1084-29-Fahriu\1-Situacioni\regjistri\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="79">
   <si>
     <t>Nr</t>
   </si>
@@ -1168,84 +1168,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1262,6 +1184,84 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1625,19 +1625,16 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>00</a:t>
+            <a:t>01084-29</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>565-6</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="1" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1400" b="1">
@@ -2028,7 +2025,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:I18"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2044,112 +2041,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -2177,16 +2174,16 @@
     </row>
     <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C15" s="9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D15" s="10">
-        <v>7510843.9336000001</v>
+        <v>7513227.608</v>
       </c>
       <c r="E15" s="10">
-        <v>4693754.3136</v>
+        <v>4691401.4800000004</v>
       </c>
       <c r="F15" s="10">
-        <v>580.96799999999996</v>
+        <v>616.45399999999995</v>
       </c>
       <c r="G15" s="7">
         <v>40</v>
@@ -2200,16 +2197,16 @@
     </row>
     <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C16" s="9">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D16" s="10">
-        <v>7510835.4665000001</v>
+        <v>7513229.9720000001</v>
       </c>
       <c r="E16" s="10">
-        <v>4693745.7829</v>
+        <v>4691397.3140000002</v>
       </c>
       <c r="F16" s="10">
-        <v>580.96799999999996</v>
+        <v>616.45399999999995</v>
       </c>
       <c r="G16" s="7">
         <v>40</v>
@@ -2223,16 +2220,16 @@
     </row>
     <row r="17" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C17" s="9">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D17" s="10">
-        <v>7510831.7971999999</v>
+        <v>7513230.6200000001</v>
       </c>
       <c r="E17" s="10">
-        <v>4693766.6201999998</v>
+        <v>4691396.176</v>
       </c>
       <c r="F17" s="10">
-        <v>580.96799999999996</v>
+        <v>616.45399999999995</v>
       </c>
       <c r="G17" s="7">
         <v>40</v>
@@ -2244,56 +2241,84 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="11">
-        <v>56</v>
-      </c>
-      <c r="D18" s="12">
-        <v>7510823.2538000001</v>
-      </c>
-      <c r="E18" s="12">
-        <v>4693758.1205000002</v>
-      </c>
-      <c r="F18" s="12">
-        <v>580.96799999999996</v>
-      </c>
-      <c r="G18" s="13">
+      <c r="C18" s="9">
+        <v>12</v>
+      </c>
+      <c r="D18" s="10">
+        <v>7513231.4910000004</v>
+      </c>
+      <c r="E18" s="10">
+        <v>4691396.6639999999</v>
+      </c>
+      <c r="F18" s="10">
+        <v>616.45399999999995</v>
+      </c>
+      <c r="G18" s="7">
         <v>40</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="C19" s="9">
+        <v>13</v>
+      </c>
+      <c r="D19" s="10">
+        <v>7513233.4029999999</v>
+      </c>
+      <c r="E19" s="10">
+        <v>4691393.2450000001</v>
+      </c>
+      <c r="F19" s="10">
+        <v>616.45399999999995</v>
+      </c>
+      <c r="G19" s="7">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="C20" s="11">
+        <v>14</v>
+      </c>
+      <c r="D20" s="12">
+        <v>7513218.0140000004</v>
+      </c>
+      <c r="E20" s="12">
+        <v>4691396.1059999997</v>
+      </c>
+      <c r="F20" s="12">
+        <v>616.45399999999995</v>
+      </c>
+      <c r="G20" s="13">
+        <v>40</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
@@ -2446,34 +2471,34 @@
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="30"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="26" t="s">
+      <c r="F35" s="42"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="27"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="38"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="50"/>
     </row>
     <row r="36" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="35">
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="47">
         <v>152</v>
       </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="40"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="52"/>
     </row>
     <row r="37" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K37" s="4"/>
@@ -2523,1241 +2548,1241 @@
   <sheetData>
     <row r="7" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="49" t="s">
+      <c r="I8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="52" t="s">
+      <c r="K8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="50" t="s">
+      <c r="L8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="50" t="s">
+      <c r="M8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="50" t="s">
+      <c r="N8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="49" t="s">
+      <c r="O8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="52" t="s">
+      <c r="Q8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="R8" s="50" t="s">
+      <c r="R8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="S8" s="50" t="s">
+      <c r="S8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="T8" s="50" t="s">
+      <c r="T8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="U8" s="49" t="s">
+      <c r="U8" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E9" s="43">
+      <c r="E9" s="17">
         <v>21</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="16">
         <v>7510856.2149999999</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="16">
         <v>4693755.2929999996</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="16">
         <v>580.50199999999995</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="43">
+      <c r="K9" s="17">
         <v>17</v>
       </c>
-      <c r="L9" s="42">
+      <c r="L9" s="16">
         <v>7510838.915</v>
       </c>
-      <c r="M9" s="42">
+      <c r="M9" s="16">
         <v>4693774.6979999999</v>
       </c>
-      <c r="N9" s="42">
+      <c r="N9" s="16">
         <v>580.52099999999996</v>
       </c>
-      <c r="O9" s="46" t="s">
+      <c r="O9" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="Q9" s="43">
+      <c r="Q9" s="17">
         <v>41</v>
       </c>
-      <c r="R9" s="42">
+      <c r="R9" s="16">
         <v>7510832.7000000002</v>
       </c>
-      <c r="S9" s="42">
+      <c r="S9" s="16">
         <v>4693767.3870000001</v>
       </c>
-      <c r="T9" s="42">
+      <c r="T9" s="16">
         <v>587.18700000000001</v>
       </c>
-      <c r="U9" s="46" t="s">
+      <c r="U9" s="20" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E10" s="51">
+      <c r="E10" s="25">
         <v>26</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="19">
         <v>7510850.9060000004</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="19">
         <v>4693765.8650000002</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="19">
         <v>580.45299999999997</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="51">
+      <c r="K10" s="25">
         <v>14</v>
       </c>
-      <c r="L10" s="45">
+      <c r="L10" s="19">
         <v>7510848.7010000004</v>
       </c>
-      <c r="M10" s="45">
+      <c r="M10" s="19">
         <v>4693764.6710000001</v>
       </c>
-      <c r="N10" s="45">
+      <c r="N10" s="19">
         <v>580.44100000000003</v>
       </c>
-      <c r="O10" s="41" t="s">
+      <c r="O10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="Q10" s="51">
+      <c r="Q10" s="25">
         <v>65</v>
       </c>
-      <c r="R10" s="45">
+      <c r="R10" s="19">
         <v>7510834.4950000001</v>
       </c>
-      <c r="S10" s="45">
+      <c r="S10" s="19">
         <v>4693744.9019999998</v>
       </c>
-      <c r="T10" s="45">
+      <c r="T10" s="19">
         <v>587.375</v>
       </c>
-      <c r="U10" s="41" t="s">
+      <c r="U10" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E11" s="51">
+      <c r="E11" s="25">
         <v>29</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="19">
         <v>7510843.0310000004</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="19">
         <v>4693780.1500000004</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="19">
         <v>580.28499999999997</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="51">
+      <c r="K11" s="25">
         <v>296</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="19">
         <v>7510832.5769999996</v>
       </c>
-      <c r="M11" s="45">
+      <c r="M11" s="19">
         <v>4693767.6793</v>
       </c>
-      <c r="N11" s="45">
+      <c r="N11" s="19">
         <v>598.59400000000005</v>
       </c>
-      <c r="O11" s="41" t="s">
+      <c r="O11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q11" s="51">
+      <c r="Q11" s="25">
         <v>66</v>
       </c>
-      <c r="R11" s="45">
+      <c r="R11" s="19">
         <v>7510822.3530000001</v>
       </c>
-      <c r="S11" s="45">
+      <c r="S11" s="19">
         <v>4693757.1469999999</v>
       </c>
-      <c r="T11" s="45">
+      <c r="T11" s="19">
         <v>588.27300000000002</v>
       </c>
-      <c r="U11" s="41" t="s">
+      <c r="U11" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E12" s="51">
+      <c r="E12" s="25">
         <v>59</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="19">
         <v>7510814.6770000001</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="19">
         <v>4693718.9680000003</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="19">
         <v>581.64</v>
       </c>
-      <c r="I12" s="41" t="s">
+      <c r="I12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="51">
+      <c r="K12" s="25">
         <v>297</v>
       </c>
-      <c r="L12" s="45">
+      <c r="L12" s="19">
         <v>7510844.9981000004</v>
       </c>
-      <c r="M12" s="45">
+      <c r="M12" s="19">
         <v>4693755.2103000004</v>
       </c>
-      <c r="N12" s="45">
+      <c r="N12" s="19">
         <v>598.59400000000005</v>
       </c>
-      <c r="O12" s="41" t="s">
+      <c r="O12" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q12" s="51">
+      <c r="Q12" s="25">
         <v>42</v>
       </c>
-      <c r="R12" s="45">
+      <c r="R12" s="19">
         <v>7510843.898</v>
       </c>
-      <c r="S12" s="45">
+      <c r="S12" s="19">
         <v>4693754.335</v>
       </c>
-      <c r="T12" s="45">
+      <c r="T12" s="19">
         <v>590.178</v>
       </c>
-      <c r="U12" s="41" t="s">
+      <c r="U12" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E13" s="51">
+      <c r="E13" s="25">
         <v>3</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="19">
         <v>7510839.8039999995</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="19">
         <v>4693780.8849999998</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="19">
         <v>580.41899999999998</v>
       </c>
-      <c r="I13" s="41" t="s">
+      <c r="I13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="51">
+      <c r="K13" s="25">
         <v>298</v>
       </c>
-      <c r="L13" s="45">
+      <c r="L13" s="19">
         <v>7510834.6544000003</v>
       </c>
-      <c r="M13" s="45">
+      <c r="M13" s="19">
         <v>4693744.9063999997</v>
       </c>
-      <c r="N13" s="45">
+      <c r="N13" s="19">
         <v>598.59400000000005</v>
       </c>
-      <c r="O13" s="41" t="s">
+      <c r="O13" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q13" s="51">
+      <c r="Q13" s="25">
         <v>70</v>
       </c>
-      <c r="R13" s="45">
+      <c r="R13" s="19">
         <v>7510823.3039999995</v>
       </c>
-      <c r="S13" s="45">
+      <c r="S13" s="19">
         <v>4693758.0789999999</v>
       </c>
-      <c r="T13" s="45">
+      <c r="T13" s="19">
         <v>590.18700000000001</v>
       </c>
-      <c r="U13" s="41" t="s">
+      <c r="U13" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E14" s="51">
+      <c r="E14" s="25">
         <v>55</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="19">
         <v>7510852.227</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="19">
         <v>4693757.7929999996</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="19">
         <v>580.50400000000002</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="51">
+      <c r="K14" s="25">
         <v>299</v>
       </c>
-      <c r="L14" s="45">
+      <c r="L14" s="19">
         <v>7510822.2334000003</v>
       </c>
-      <c r="M14" s="45">
+      <c r="M14" s="19">
         <v>4693757.3755000001</v>
       </c>
-      <c r="N14" s="45">
+      <c r="N14" s="19">
         <v>598.59400000000005</v>
       </c>
-      <c r="O14" s="41" t="s">
+      <c r="O14" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q14" s="51">
+      <c r="Q14" s="25">
         <v>71</v>
       </c>
-      <c r="R14" s="45">
+      <c r="R14" s="19">
         <v>7510822.4110000003</v>
       </c>
-      <c r="S14" s="45">
+      <c r="S14" s="19">
         <v>4693757.165</v>
       </c>
-      <c r="T14" s="45">
+      <c r="T14" s="19">
         <v>590.17399999999998</v>
       </c>
-      <c r="U14" s="41" t="s">
+      <c r="U14" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E15" s="51">
+      <c r="E15" s="25">
         <v>57</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="19">
         <v>7510817.4160000002</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="19">
         <v>4693754.5769999996</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H15" s="19">
         <v>581.05799999999999</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="51">
+      <c r="K15" s="25">
         <v>327</v>
       </c>
-      <c r="L15" s="45">
+      <c r="L15" s="19">
         <v>7510933.0552000003</v>
       </c>
-      <c r="M15" s="45">
+      <c r="M15" s="19">
         <v>4693778.8828999996</v>
       </c>
-      <c r="N15" s="45">
+      <c r="N15" s="19">
         <v>665.279</v>
       </c>
-      <c r="O15" s="41" t="s">
+      <c r="O15" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="51">
+      <c r="Q15" s="25">
         <v>72</v>
       </c>
-      <c r="R15" s="45">
+      <c r="R15" s="19">
         <v>7510822.4000000004</v>
       </c>
-      <c r="S15" s="45">
+      <c r="S15" s="19">
         <v>4693757.1540000001</v>
       </c>
-      <c r="T15" s="45">
+      <c r="T15" s="19">
         <v>591.33199999999999</v>
       </c>
-      <c r="U15" s="41" t="s">
+      <c r="U15" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E16" s="51">
+      <c r="E16" s="25">
         <v>20</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="19">
         <v>7510852.4390000002</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="19">
         <v>4693756.551</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="19">
         <v>580.61400000000003</v>
       </c>
-      <c r="I16" s="41" t="s">
+      <c r="I16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="51">
+      <c r="K16" s="25">
         <v>22</v>
       </c>
-      <c r="L16" s="45">
+      <c r="L16" s="19">
         <v>7510856.2220000001</v>
       </c>
-      <c r="M16" s="45">
+      <c r="M16" s="19">
         <v>4693755.2879999997</v>
       </c>
-      <c r="N16" s="45">
+      <c r="N16" s="19">
         <v>580.56600000000003</v>
       </c>
-      <c r="O16" s="41" t="s">
+      <c r="O16" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Q16" s="51">
+      <c r="Q16" s="25">
         <v>43</v>
       </c>
-      <c r="R16" s="45">
+      <c r="R16" s="19">
         <v>7510844.7580000004</v>
       </c>
-      <c r="S16" s="45">
+      <c r="S16" s="19">
         <v>4693755.1890000002</v>
       </c>
-      <c r="T16" s="45">
+      <c r="T16" s="19">
         <v>590.18700000000001</v>
       </c>
-      <c r="U16" s="41" t="s">
+      <c r="U16" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E17" s="51">
+      <c r="E17" s="25">
         <v>79</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="19">
         <v>7510832.0049999999</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="19">
         <v>4693747.3870000001</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="19">
         <v>598.59400000000005</v>
       </c>
-      <c r="I17" s="41" t="s">
+      <c r="I17" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="51">
+      <c r="K17" s="25">
         <v>23</v>
       </c>
-      <c r="L17" s="45">
+      <c r="L17" s="19">
         <v>7510850.8899999997</v>
       </c>
-      <c r="M17" s="45">
+      <c r="M17" s="19">
         <v>4693752.8590000002</v>
       </c>
-      <c r="N17" s="45">
+      <c r="N17" s="19">
         <v>580.62599999999998</v>
       </c>
-      <c r="O17" s="41" t="s">
+      <c r="O17" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Q17" s="51">
+      <c r="Q17" s="25">
         <v>44</v>
       </c>
-      <c r="R17" s="45">
+      <c r="R17" s="19">
         <v>7510844.7620000001</v>
       </c>
-      <c r="S17" s="45">
+      <c r="S17" s="19">
         <v>4693755.193</v>
       </c>
-      <c r="T17" s="45">
+      <c r="T17" s="19">
         <v>591.33799999999997</v>
       </c>
-      <c r="U17" s="41" t="s">
+      <c r="U17" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E18" s="51">
+      <c r="E18" s="25">
         <v>28</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="19">
         <v>7510842.0080000004</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="19">
         <v>4693779.1569999997</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="19">
         <v>580.46400000000006</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="51">
+      <c r="K18" s="25">
         <v>24</v>
       </c>
-      <c r="L18" s="45">
+      <c r="L18" s="19">
         <v>7510845.5630000001</v>
       </c>
-      <c r="M18" s="45">
+      <c r="M18" s="19">
         <v>4693763.2079999996</v>
       </c>
-      <c r="N18" s="45">
+      <c r="N18" s="19">
         <v>580.58399999999995</v>
       </c>
-      <c r="O18" s="41" t="s">
+      <c r="O18" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Q18" s="51">
+      <c r="Q18" s="25">
         <v>45</v>
       </c>
-      <c r="R18" s="45">
+      <c r="R18" s="19">
         <v>7510831.8420000002</v>
       </c>
-      <c r="S18" s="45">
+      <c r="S18" s="19">
         <v>4693766.5580000002</v>
       </c>
-      <c r="T18" s="45">
+      <c r="T18" s="19">
         <v>593.30399999999997</v>
       </c>
-      <c r="U18" s="41" t="s">
+      <c r="U18" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E19" s="51">
+      <c r="E19" s="25">
         <v>53</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="19">
         <v>7510850.0630000001</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="19">
         <v>4693754.32</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="19">
         <v>585.34500000000003</v>
       </c>
-      <c r="I19" s="41" t="s">
+      <c r="I19" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="51">
+      <c r="K19" s="25">
         <v>25</v>
       </c>
-      <c r="L19" s="45">
+      <c r="L19" s="19">
         <v>7510850.8569999998</v>
       </c>
-      <c r="M19" s="45">
+      <c r="M19" s="19">
         <v>4693765.8459999999</v>
       </c>
-      <c r="N19" s="45">
+      <c r="N19" s="19">
         <v>580.52800000000002</v>
       </c>
-      <c r="O19" s="41" t="s">
+      <c r="O19" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Q19" s="51">
+      <c r="Q19" s="25">
         <v>46</v>
       </c>
-      <c r="R19" s="45">
+      <c r="R19" s="19">
         <v>7510832.6900000004</v>
       </c>
-      <c r="S19" s="45">
+      <c r="S19" s="19">
         <v>4693767.4069999997</v>
       </c>
-      <c r="T19" s="45">
+      <c r="T19" s="19">
         <v>593.298</v>
       </c>
-      <c r="U19" s="41" t="s">
+      <c r="U19" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E20" s="51">
+      <c r="E20" s="25">
         <v>300</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="19">
         <v>7510830.3503999999</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="19">
         <v>4693739.4398999996</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="19">
         <v>581.18700000000001</v>
       </c>
-      <c r="I20" s="41" t="s">
+      <c r="I20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K20" s="51">
+      <c r="K20" s="25">
         <v>30</v>
       </c>
-      <c r="L20" s="45">
+      <c r="L20" s="19">
         <v>7510843.0099999998</v>
       </c>
-      <c r="M20" s="45">
+      <c r="M20" s="19">
         <v>4693780.1459999997</v>
       </c>
-      <c r="N20" s="45">
+      <c r="N20" s="19">
         <v>580.33699999999999</v>
       </c>
-      <c r="O20" s="41" t="s">
+      <c r="O20" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Q20" s="51">
+      <c r="Q20" s="25">
         <v>67</v>
       </c>
-      <c r="R20" s="45">
+      <c r="R20" s="19">
         <v>7510835.4249999998</v>
       </c>
-      <c r="S20" s="45">
+      <c r="S20" s="19">
         <v>4693745.824</v>
       </c>
-      <c r="T20" s="45">
+      <c r="T20" s="19">
         <v>590.16700000000003</v>
       </c>
-      <c r="U20" s="41" t="s">
+      <c r="U20" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E21" s="51">
+      <c r="E21" s="25">
         <v>5</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="19">
         <v>7510828.8200000003</v>
       </c>
-      <c r="G21" s="45">
+      <c r="G21" s="19">
         <v>4693736.5530000003</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="19">
         <v>581.25199999999995</v>
       </c>
-      <c r="I21" s="41" t="s">
+      <c r="I21" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="51">
+      <c r="K21" s="25">
         <v>31</v>
       </c>
-      <c r="L21" s="45">
+      <c r="L21" s="19">
         <v>7510837.977</v>
       </c>
-      <c r="M21" s="45">
+      <c r="M21" s="19">
         <v>4693776.977</v>
       </c>
-      <c r="N21" s="45">
+      <c r="N21" s="19">
         <v>580.41</v>
       </c>
-      <c r="O21" s="41" t="s">
+      <c r="O21" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Q21" s="51">
+      <c r="Q21" s="25">
         <v>68</v>
       </c>
-      <c r="R21" s="45">
+      <c r="R21" s="19">
         <v>7510834.5439999998</v>
       </c>
-      <c r="S21" s="45">
+      <c r="S21" s="19">
         <v>4693744.9340000004</v>
       </c>
-      <c r="T21" s="45">
+      <c r="T21" s="19">
         <v>590.14400000000001</v>
       </c>
-      <c r="U21" s="41" t="s">
+      <c r="U21" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E22" s="51">
+      <c r="E22" s="25">
         <v>9</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="19">
         <v>7510847.3049999997</v>
       </c>
-      <c r="G22" s="45">
+      <c r="G22" s="19">
         <v>4693756.4369999999</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="19">
         <v>580.69899999999996</v>
       </c>
-      <c r="I22" s="41" t="s">
+      <c r="I22" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K22" s="51">
+      <c r="K22" s="25">
         <v>32</v>
       </c>
-      <c r="L22" s="45">
+      <c r="L22" s="19">
         <v>7510843.9029999999</v>
       </c>
-      <c r="M22" s="45">
+      <c r="M22" s="19">
         <v>4693754.3380000005</v>
       </c>
-      <c r="N22" s="45">
+      <c r="N22" s="19">
         <v>584.08900000000006</v>
       </c>
-      <c r="O22" s="41" t="s">
+      <c r="O22" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="Q22" s="51">
+      <c r="Q22" s="25">
         <v>69</v>
       </c>
-      <c r="R22" s="45">
+      <c r="R22" s="19">
         <v>7510834.4929999998</v>
       </c>
-      <c r="S22" s="45">
+      <c r="S22" s="19">
         <v>4693745.0290000001</v>
       </c>
-      <c r="T22" s="45">
+      <c r="T22" s="19">
         <v>591.36199999999997</v>
       </c>
-      <c r="U22" s="41" t="s">
+      <c r="U22" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E23" s="51">
+      <c r="E23" s="25">
         <v>16</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="19">
         <v>7510838.7439999999</v>
       </c>
-      <c r="G23" s="45">
+      <c r="G23" s="19">
         <v>4693774.6440000003</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="19">
         <v>580.524</v>
       </c>
-      <c r="I23" s="41" t="s">
+      <c r="I23" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="K23" s="51">
+      <c r="K23" s="25">
         <v>63</v>
       </c>
-      <c r="L23" s="45">
+      <c r="L23" s="19">
         <v>7510823.3119999999</v>
       </c>
-      <c r="M23" s="45">
+      <c r="M23" s="19">
         <v>4693758.0619999999</v>
       </c>
-      <c r="N23" s="45">
+      <c r="N23" s="19">
         <v>584.08900000000006</v>
       </c>
-      <c r="O23" s="41" t="s">
+      <c r="O23" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="Q23" s="51">
+      <c r="Q23" s="25">
         <v>47</v>
       </c>
-      <c r="R23" s="45">
+      <c r="R23" s="19">
         <v>7510843.8969999999</v>
       </c>
-      <c r="S23" s="45">
+      <c r="S23" s="19">
         <v>4693754.3430000003</v>
       </c>
-      <c r="T23" s="45">
+      <c r="T23" s="19">
         <v>593.25900000000001</v>
       </c>
-      <c r="U23" s="41" t="s">
+      <c r="U23" s="15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="24" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E24" s="51">
+      <c r="E24" s="25">
         <v>58</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="19">
         <v>7510816.0659999996</v>
       </c>
-      <c r="G24" s="45">
+      <c r="G24" s="19">
         <v>4693753.0669999998</v>
       </c>
-      <c r="H24" s="45">
+      <c r="H24" s="19">
         <v>581.00300000000004</v>
       </c>
-      <c r="I24" s="41" t="s">
+      <c r="I24" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="51">
+      <c r="K24" s="25">
         <v>64</v>
       </c>
-      <c r="L24" s="45">
+      <c r="L24" s="19">
         <v>7510822.3650000002</v>
       </c>
-      <c r="M24" s="45">
+      <c r="M24" s="19">
         <v>4693757.1229999997</v>
       </c>
-      <c r="N24" s="45">
+      <c r="N24" s="19">
         <v>584.08900000000006</v>
       </c>
-      <c r="O24" s="41" t="s">
+      <c r="O24" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="Q24" s="51">
+      <c r="Q24" s="25">
         <v>76</v>
       </c>
-      <c r="R24" s="45">
+      <c r="R24" s="19">
         <v>7510823.3119999999</v>
       </c>
-      <c r="S24" s="45">
+      <c r="S24" s="19">
         <v>4693758.0619999999</v>
       </c>
-      <c r="T24" s="45">
+      <c r="T24" s="19">
         <v>593.27300000000002</v>
       </c>
-      <c r="U24" s="41" t="s">
+      <c r="U24" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="25" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E25" s="51">
+      <c r="E25" s="25">
         <v>4</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="19">
         <v>7510828.2419999996</v>
       </c>
-      <c r="G25" s="45">
+      <c r="G25" s="19">
         <v>4693730.3839999996</v>
       </c>
-      <c r="H25" s="45">
+      <c r="H25" s="19">
         <v>581.38199999999995</v>
       </c>
-      <c r="I25" s="41" t="s">
+      <c r="I25" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K25" s="51">
+      <c r="K25" s="25">
         <v>34</v>
       </c>
-      <c r="L25" s="45">
+      <c r="L25" s="19">
         <v>7510844.7369999997</v>
       </c>
-      <c r="M25" s="45">
+      <c r="M25" s="19">
         <v>4693755.2079999996</v>
       </c>
-      <c r="N25" s="45">
+      <c r="N25" s="19">
         <v>584.08900000000006</v>
       </c>
-      <c r="O25" s="41" t="s">
+      <c r="O25" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="Q25" s="51">
+      <c r="Q25" s="25">
         <v>77</v>
       </c>
-      <c r="R25" s="45">
+      <c r="R25" s="19">
         <v>7510822.3890000004</v>
       </c>
-      <c r="S25" s="45">
+      <c r="S25" s="19">
         <v>4693757.1330000004</v>
       </c>
-      <c r="T25" s="45">
+      <c r="T25" s="19">
         <v>593.26400000000001</v>
       </c>
-      <c r="U25" s="41" t="s">
+      <c r="U25" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E26" s="51">
+      <c r="E26" s="25">
         <v>6</v>
       </c>
-      <c r="F26" s="45">
+      <c r="F26" s="19">
         <v>7510835.7640000004</v>
       </c>
-      <c r="G26" s="45">
+      <c r="G26" s="19">
         <v>4693738.5750000002</v>
       </c>
-      <c r="H26" s="45">
+      <c r="H26" s="19">
         <v>581.18100000000004</v>
       </c>
-      <c r="I26" s="41" t="s">
+      <c r="I26" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="51">
+      <c r="K26" s="25">
         <v>35</v>
       </c>
-      <c r="L26" s="45">
+      <c r="L26" s="19">
         <v>7510831.858</v>
       </c>
-      <c r="M26" s="45">
+      <c r="M26" s="19">
         <v>4693766.5590000004</v>
       </c>
-      <c r="N26" s="45">
+      <c r="N26" s="19">
         <v>584.11599999999999</v>
       </c>
-      <c r="O26" s="41" t="s">
+      <c r="O26" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="Q26" s="51">
+      <c r="Q26" s="25">
         <v>78</v>
       </c>
-      <c r="R26" s="45">
+      <c r="R26" s="19">
         <v>7510822.3650000002</v>
       </c>
-      <c r="S26" s="45">
+      <c r="S26" s="19">
         <v>4693757.1229999997</v>
       </c>
-      <c r="T26" s="45">
+      <c r="T26" s="19">
         <v>594.428</v>
       </c>
-      <c r="U26" s="41" t="s">
+      <c r="U26" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="27" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E27" s="51">
+      <c r="E27" s="25">
         <v>7</v>
       </c>
-      <c r="F27" s="45">
+      <c r="F27" s="19">
         <v>7510835.7649999997</v>
       </c>
-      <c r="G27" s="45">
+      <c r="G27" s="19">
         <v>4693738.5750000002</v>
       </c>
-      <c r="H27" s="45">
+      <c r="H27" s="19">
         <v>581.18299999999999</v>
       </c>
-      <c r="I27" s="41" t="s">
+      <c r="I27" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="K27" s="51">
+      <c r="K27" s="25">
         <v>36</v>
       </c>
-      <c r="L27" s="45">
+      <c r="L27" s="19">
         <v>7510832.6960000005</v>
       </c>
-      <c r="M27" s="45">
+      <c r="M27" s="19">
         <v>4693767.4139999999</v>
       </c>
-      <c r="N27" s="45">
+      <c r="N27" s="19">
         <v>584.08900000000006</v>
       </c>
-      <c r="O27" s="41" t="s">
+      <c r="O27" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="Q27" s="51">
+      <c r="Q27" s="25">
         <v>48</v>
       </c>
-      <c r="R27" s="45">
+      <c r="R27" s="19">
         <v>7510844.7369999997</v>
       </c>
-      <c r="S27" s="45">
+      <c r="S27" s="19">
         <v>4693755.2079999996</v>
       </c>
-      <c r="T27" s="45">
+      <c r="T27" s="19">
         <v>593.27200000000005</v>
       </c>
-      <c r="U27" s="41" t="s">
+      <c r="U27" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="28" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E28" s="51">
+      <c r="E28" s="25">
         <v>8</v>
       </c>
-      <c r="F28" s="45">
+      <c r="F28" s="19">
         <v>7510849.3859999999</v>
       </c>
-      <c r="G28" s="45">
+      <c r="G28" s="19">
         <v>4693753.449</v>
       </c>
-      <c r="H28" s="45">
+      <c r="H28" s="19">
         <v>580.72500000000002</v>
       </c>
-      <c r="I28" s="41" t="s">
+      <c r="I28" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K28" s="51">
+      <c r="K28" s="25">
         <v>61</v>
       </c>
-      <c r="L28" s="45">
+      <c r="L28" s="19">
         <v>7510835.4249999998</v>
       </c>
-      <c r="M28" s="45">
+      <c r="M28" s="19">
         <v>4693745.824</v>
       </c>
-      <c r="N28" s="45">
+      <c r="N28" s="19">
         <v>584.08900000000006</v>
       </c>
-      <c r="O28" s="41" t="s">
+      <c r="O28" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Q28" s="51">
+      <c r="Q28" s="25">
         <v>49</v>
       </c>
-      <c r="R28" s="45">
+      <c r="R28" s="19">
         <v>7510844.7620000001</v>
       </c>
-      <c r="S28" s="45">
+      <c r="S28" s="19">
         <v>4693755.2110000001</v>
       </c>
-      <c r="T28" s="45">
+      <c r="T28" s="19">
         <v>594.38800000000003</v>
       </c>
-      <c r="U28" s="41" t="s">
+      <c r="U28" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="29" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E29" s="51">
+      <c r="E29" s="25">
         <v>52</v>
       </c>
-      <c r="F29" s="45">
+      <c r="F29" s="19">
         <v>7510853.9239999996</v>
       </c>
-      <c r="G29" s="45">
+      <c r="G29" s="19">
         <v>4693743.9119999995</v>
       </c>
-      <c r="H29" s="45">
+      <c r="H29" s="19">
         <v>584.55100000000004</v>
       </c>
-      <c r="I29" s="41" t="s">
+      <c r="I29" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="51">
+      <c r="K29" s="25">
         <v>62</v>
       </c>
-      <c r="L29" s="45">
+      <c r="L29" s="19">
         <v>7510834.4950000001</v>
       </c>
-      <c r="M29" s="45">
+      <c r="M29" s="19">
         <v>4693744.9019999998</v>
       </c>
-      <c r="N29" s="45">
+      <c r="N29" s="19">
         <v>584.08900000000006</v>
       </c>
-      <c r="O29" s="41" t="s">
+      <c r="O29" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q29" s="51">
+      <c r="Q29" s="25">
         <v>50</v>
       </c>
-      <c r="R29" s="45">
+      <c r="R29" s="19">
         <v>7510831.8420000002</v>
       </c>
-      <c r="S29" s="45">
+      <c r="S29" s="19">
         <v>4693766.5599999996</v>
       </c>
-      <c r="T29" s="45">
+      <c r="T29" s="19">
         <v>593.30600000000004</v>
       </c>
-      <c r="U29" s="41" t="s">
+      <c r="U29" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="30" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E30" s="51">
+      <c r="E30" s="25">
         <v>1</v>
       </c>
-      <c r="F30" s="45">
+      <c r="F30" s="19">
         <v>7510839.7960000001</v>
       </c>
-      <c r="G30" s="45">
+      <c r="G30" s="19">
         <v>4693780.8739999998</v>
       </c>
-      <c r="H30" s="45">
+      <c r="H30" s="19">
         <v>580.41399999999999</v>
       </c>
-      <c r="I30" s="41" t="s">
+      <c r="I30" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K30" s="51">
+      <c r="K30" s="25">
         <v>37</v>
       </c>
-      <c r="L30" s="45">
+      <c r="L30" s="19">
         <v>7510843.8969999999</v>
       </c>
-      <c r="M30" s="45">
+      <c r="M30" s="19">
         <v>4693754.3380000005</v>
       </c>
-      <c r="N30" s="45">
+      <c r="N30" s="19">
         <v>587.15499999999997</v>
       </c>
-      <c r="O30" s="41" t="s">
+      <c r="O30" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="Q30" s="51">
+      <c r="Q30" s="25">
         <v>51</v>
       </c>
-      <c r="R30" s="45">
+      <c r="R30" s="19">
         <v>7510832.6960000005</v>
       </c>
-      <c r="S30" s="45">
+      <c r="S30" s="19">
         <v>4693767.4139999999</v>
       </c>
-      <c r="T30" s="45">
+      <c r="T30" s="19">
         <v>593.298</v>
       </c>
-      <c r="U30" s="41" t="s">
+      <c r="U30" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="31" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E31" s="51">
+      <c r="E31" s="25">
         <v>2</v>
       </c>
-      <c r="F31" s="45">
+      <c r="F31" s="19">
         <v>7510852.2230000002</v>
       </c>
-      <c r="G31" s="45">
+      <c r="G31" s="19">
         <v>4693757.7889999999</v>
       </c>
-      <c r="H31" s="45">
+      <c r="H31" s="19">
         <v>580.53899999999999</v>
       </c>
-      <c r="I31" s="41" t="s">
+      <c r="I31" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="51">
+      <c r="K31" s="25">
         <v>38</v>
       </c>
-      <c r="L31" s="45">
+      <c r="L31" s="19">
         <v>7510844.733</v>
       </c>
-      <c r="M31" s="45">
+      <c r="M31" s="19">
         <v>4693755.176</v>
       </c>
-      <c r="N31" s="45">
+      <c r="N31" s="19">
         <v>587.16200000000003</v>
       </c>
-      <c r="O31" s="41" t="s">
+      <c r="O31" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Q31" s="51">
+      <c r="Q31" s="25">
         <v>73</v>
       </c>
-      <c r="R31" s="45">
+      <c r="R31" s="19">
         <v>7510835.4249999998</v>
       </c>
-      <c r="S31" s="45">
+      <c r="S31" s="19">
         <v>4693745.824</v>
       </c>
-      <c r="T31" s="45">
+      <c r="T31" s="19">
         <v>593.25400000000002</v>
       </c>
-      <c r="U31" s="41" t="s">
+      <c r="U31" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="32" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E32" s="51">
+      <c r="E32" s="25">
         <v>54</v>
       </c>
-      <c r="F32" s="45">
+      <c r="F32" s="19">
         <v>7510827.0769999996</v>
       </c>
-      <c r="G32" s="45">
+      <c r="G32" s="19">
         <v>4693733.3370000003</v>
       </c>
-      <c r="H32" s="45">
+      <c r="H32" s="19">
         <v>581.29300000000001</v>
       </c>
-      <c r="I32" s="41" t="s">
+      <c r="I32" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="K32" s="51">
+      <c r="K32" s="25">
         <v>39</v>
       </c>
-      <c r="L32" s="45">
+      <c r="L32" s="19">
         <v>7510844.7539999997</v>
       </c>
-      <c r="M32" s="45">
+      <c r="M32" s="19">
         <v>4693755.1730000004</v>
       </c>
-      <c r="N32" s="45">
+      <c r="N32" s="19">
         <v>588.27200000000005</v>
       </c>
-      <c r="O32" s="41" t="s">
+      <c r="O32" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Q32" s="51">
+      <c r="Q32" s="25">
         <v>74</v>
       </c>
-      <c r="R32" s="45">
+      <c r="R32" s="19">
         <v>7510834.5439999998</v>
       </c>
-      <c r="S32" s="45">
+      <c r="S32" s="19">
         <v>4693744.9400000004</v>
       </c>
-      <c r="T32" s="45">
+      <c r="T32" s="19">
         <v>593.24800000000005</v>
       </c>
-      <c r="U32" s="41" t="s">
+      <c r="U32" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="33" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="47">
+      <c r="E33" s="21">
         <v>10</v>
       </c>
-      <c r="F33" s="44">
+      <c r="F33" s="18">
         <v>7510847.4340000004</v>
       </c>
-      <c r="G33" s="44">
+      <c r="G33" s="18">
         <v>4693756.4050000003</v>
       </c>
-      <c r="H33" s="44">
+      <c r="H33" s="18">
         <v>580.69799999999998</v>
       </c>
-      <c r="I33" s="48" t="s">
+      <c r="I33" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="K33" s="47">
+      <c r="K33" s="21">
         <v>40</v>
       </c>
-      <c r="L33" s="44">
+      <c r="L33" s="18">
         <v>7510831.8430000003</v>
       </c>
-      <c r="M33" s="44">
+      <c r="M33" s="18">
         <v>4693766.5710000005</v>
       </c>
-      <c r="N33" s="44">
+      <c r="N33" s="18">
         <v>587.17100000000005</v>
       </c>
-      <c r="O33" s="48" t="s">
+      <c r="O33" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="Q33" s="51">
+      <c r="Q33" s="25">
         <v>75</v>
       </c>
-      <c r="R33" s="45">
+      <c r="R33" s="19">
         <v>7510834.4809999997</v>
       </c>
-      <c r="S33" s="45">
+      <c r="S33" s="19">
         <v>4693745.0439999998</v>
       </c>
-      <c r="T33" s="45">
+      <c r="T33" s="19">
         <v>594.46500000000003</v>
       </c>
-      <c r="U33" s="41" t="s">
+      <c r="U33" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="34" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q34" s="47">
+      <c r="Q34" s="21">
         <v>27</v>
       </c>
-      <c r="R34" s="44">
+      <c r="R34" s="18">
         <v>7510846.4699999997</v>
       </c>
-      <c r="S34" s="44">
+      <c r="S34" s="18">
         <v>4693774.4309999999</v>
       </c>
-      <c r="T34" s="44">
+      <c r="T34" s="18">
         <v>580.39499999999998</v>
       </c>
-      <c r="U34" s="48" t="s">
+      <c r="U34" s="22" t="s">
         <v>78</v>
       </c>
     </row>
